--- a/STG_data.xlsx
+++ b/STG_data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eiralee/EiraLi-Katalon_API/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1D0C73-8B5C-C141-9C1C-A63D46C736DF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32835B05-8880-A24D-BDAC-35008BB1C4D8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34240" yWindow="-3640" windowWidth="29680" windowHeight="17100" xr2:uid="{4ABBE822-C540-4244-926E-370C7E326042}"/>
+    <workbookView xWindow="29200" yWindow="-4020" windowWidth="42040" windowHeight="17100" xr2:uid="{4ABBE822-C540-4244-926E-370C7E326042}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="ref" sheetId="2" r:id="rId2"/>
+    <sheet name="工作表1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="69">
   <si>
     <t>partner</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,185 +84,197 @@
     <t>Eira_newbbin_stg_01</t>
   </si>
   <si>
-    <t>FS_20</t>
+    <t>c304afdf-2f61-6369-c088-924f99e1be1a</t>
+  </si>
+  <si>
+    <t>418184e911563cd861e90db6233d7d6c</t>
+  </si>
+  <si>
+    <t>eira_bbin_0001</t>
+  </si>
+  <si>
+    <t>BG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>72bbe33f-0ed2-af05-4930-577a01649c48</t>
+  </si>
+  <si>
+    <t>69035e6c-7aec-4dec-af6d-fa81c26588b6</t>
+  </si>
+  <si>
+    <t>GPK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>db7b3a43-89c6-3751-16e6-baa24434b393</t>
+  </si>
+  <si>
+    <t>fac49991cbd38efd9131894b9a1a0350</t>
+  </si>
+  <si>
+    <t>eira_gpk_001</t>
+  </si>
+  <si>
+    <t>GT_Genesis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c22e510f-821b-4aa4-b86e-06bc90fee458</t>
+  </si>
+  <si>
+    <t>5839eb59-4aa7-46cc-8bc0-d448a01aae65</t>
+  </si>
+  <si>
+    <t>Genesis_stg_02</t>
+  </si>
+  <si>
+    <t>dcd887e5-5069-45d1-8a5a-b9af9b646f15</t>
+  </si>
+  <si>
+    <t>1461871a-3e65-4edb-9f88-0e267948ed39</t>
+  </si>
+  <si>
+    <t>Radi8_stg_01</t>
+  </si>
+  <si>
+    <t>SIMBO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8c31b93c-24bd-4dfa-aa16-db96c0296b3a</t>
+  </si>
+  <si>
+    <t>eeb847b7-16a2-4618-951c-8d07c78f3dd6</t>
+  </si>
+  <si>
+    <t>TestUser01</t>
+  </si>
+  <si>
+    <t>BOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a909b172-7637-a87b-8a3e-9f29b12bc47e</t>
+  </si>
+  <si>
+    <t>d311c6ce-0111-4485-99b6-a3712d48f4a3</t>
+  </si>
+  <si>
+    <t>BOS_TestUserCNY01</t>
+  </si>
+  <si>
+    <t>OG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6381de39-74c0-4f05-95d9-3b58d28b2938</t>
+  </si>
+  <si>
+    <t>b2dcab8b-dff2-49bf-8945-c25260d47c79</t>
+  </si>
+  <si>
+    <t>OG_TestUserCNY01</t>
+  </si>
+  <si>
+    <t>nurgs.star9ad.com</t>
+  </si>
+  <si>
+    <t>login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base spin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>free round</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>krug.star9ad.com</t>
+  </si>
+  <si>
+    <t>BOPTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>krug-gw-colo.star9ad.com</t>
+  </si>
+  <si>
+    <t>BO_transaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rp-gt.star9ad.com</t>
+  </si>
+  <si>
+    <t>partner_query_history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Get session</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_nurgs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_krug_gw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_krug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url_history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api will use</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eira_BG_stg_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GT_radi8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NG-0063</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c304afdf-2f61-6369-c088-924f99e1be1a</t>
-  </si>
-  <si>
-    <t>418184e911563cd861e90db6233d7d6c</t>
-  </si>
-  <si>
-    <t>eira_bbin_0001</t>
-  </si>
-  <si>
-    <t>2019-07-03T00:00:00Z</t>
-  </si>
-  <si>
-    <t>2019-07-04T23:59:00Z</t>
-  </si>
-  <si>
-    <t>BG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>72bbe33f-0ed2-af05-4930-577a01649c48</t>
-  </si>
-  <si>
-    <t>69035e6c-7aec-4dec-af6d-fa81c26588b6</t>
-  </si>
-  <si>
-    <t>Eira_BG_stg_01</t>
-  </si>
-  <si>
-    <t>GPK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>db7b3a43-89c6-3751-16e6-baa24434b393</t>
-  </si>
-  <si>
-    <t>fac49991cbd38efd9131894b9a1a0350</t>
-  </si>
-  <si>
-    <t>eira_gpk_001</t>
-  </si>
-  <si>
-    <t>GT_Genesis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GT_Radi8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c22e510f-821b-4aa4-b86e-06bc90fee458</t>
-  </si>
-  <si>
-    <t>5839eb59-4aa7-46cc-8bc0-d448a01aae65</t>
-  </si>
-  <si>
-    <t>Genesis_stg_02</t>
-  </si>
-  <si>
-    <t>dcd887e5-5069-45d1-8a5a-b9af9b646f15</t>
-  </si>
-  <si>
-    <t>1461871a-3e65-4edb-9f88-0e267948ed39</t>
-  </si>
-  <si>
-    <t>Radi8_stg_01</t>
-  </si>
-  <si>
-    <t>SIMBO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8c31b93c-24bd-4dfa-aa16-db96c0296b3a</t>
-  </si>
-  <si>
-    <t>eeb847b7-16a2-4618-951c-8d07c78f3dd6</t>
-  </si>
-  <si>
-    <t>TestUser01</t>
-  </si>
-  <si>
-    <t>BOS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a909b172-7637-a87b-8a3e-9f29b12bc47e</t>
-  </si>
-  <si>
-    <t>d311c6ce-0111-4485-99b6-a3712d48f4a3</t>
-  </si>
-  <si>
-    <t>BOS_TestUserCNY01</t>
-  </si>
-  <si>
-    <t>OG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6381de39-74c0-4f05-95d9-3b58d28b2938</t>
-  </si>
-  <si>
-    <t>b2dcab8b-dff2-49bf-8945-c25260d47c79</t>
-  </si>
-  <si>
-    <t>OG_TestUserCNY01</t>
-  </si>
-  <si>
-    <t>nurgs.star9ad.com</t>
-  </si>
-  <si>
-    <t>login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>base spin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>free round</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>krug.star9ad.com</t>
-  </si>
-  <si>
-    <t>BOPTH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>krug-gw-colo.star9ad.com</t>
-  </si>
-  <si>
-    <t>BO_transaction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rp-gt.star9ad.com</t>
-  </si>
-  <si>
-    <t>partner_query_history</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Get session</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url_nurgs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url_krug_gw</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url_krug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url_history</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>api will use</t>
+  </si>
+  <si>
+    <t>url_genplus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.201.11.17:8090</t>
+  </si>
+  <si>
+    <t>FS_5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>2019-07-12T00:00:00Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-07-12T23:59:00Z</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -269,7 +282,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -325,8 +338,22 @@
       <name val="Franklin Gothic Book"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF091E42"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,18 +363,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,7 +413,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -417,19 +432,22 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -746,106 +764,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670E70B4-D18C-8A41-9D76-6A8C3B916D59}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
   <cols>
     <col min="1" max="1" width="20.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="34.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="17" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.1640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="26" style="1" customWidth="1"/>
     <col min="10" max="10" width="29.33203125" style="1" customWidth="1"/>
     <col min="11" max="12" width="20" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="13" max="13" width="23.1640625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="10" customFormat="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:14" s="8" customFormat="1">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="K1" s="10" t="s">
+      <c r="I1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="2" customFormat="1" ht="20">
+      <c r="A2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="20">
-      <c r="A2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="L2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" ht="20">
-      <c r="A3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" s="2" customFormat="1" ht="20">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -854,306 +882,330 @@
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>14</v>
+      <c r="E3" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="2" customFormat="1" ht="20">
+      <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="D4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="2" customFormat="1" ht="20">
+      <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" ht="20">
-      <c r="A4" s="7" t="s">
+      <c r="B5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="2" customFormat="1" ht="20">
+      <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" ht="20">
-      <c r="A5" s="7" t="s">
+      <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E6" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="2" customFormat="1" ht="20">
+      <c r="A7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" t="s">
-        <v>55</v>
-      </c>
-      <c r="K5" t="s">
-        <v>53</v>
-      </c>
-      <c r="L5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" ht="20">
-      <c r="A6" s="7" t="s">
+      <c r="C7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="2" customFormat="1" ht="20">
+      <c r="A8" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="C8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" t="s">
-        <v>48</v>
-      </c>
-      <c r="J6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K6" t="s">
-        <v>53</v>
-      </c>
-      <c r="L6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" ht="20">
-      <c r="A7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="D8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="E8" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="2" customFormat="1" ht="20">
+      <c r="A9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" t="s">
-        <v>53</v>
-      </c>
-      <c r="L7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="2" customFormat="1" ht="20">
-      <c r="A8" s="7" t="s">
+      <c r="C9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="D9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="E9" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" t="s">
+        <v>47</v>
+      </c>
+      <c r="L9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="2" customFormat="1" ht="20">
+      <c r="A10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="B10" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" t="s">
-        <v>48</v>
-      </c>
-      <c r="J8" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8" t="s">
-        <v>53</v>
-      </c>
-      <c r="L8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="2" customFormat="1" ht="20">
-      <c r="A9" s="7" t="s">
+      <c r="C10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="D10" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="E10" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I10" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K9" t="s">
-        <v>53</v>
-      </c>
-      <c r="L9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="2" customFormat="1" ht="20">
-      <c r="A10" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="J10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" t="s">
-        <v>48</v>
-      </c>
-      <c r="J10" t="s">
-        <v>55</v>
-      </c>
-      <c r="K10" t="s">
-        <v>53</v>
-      </c>
       <c r="L10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="2" customFormat="1" ht="20"/>
-    <row r="12" spans="1:12" s="2" customFormat="1" ht="20"/>
-    <row r="13" spans="1:12" s="2" customFormat="1" ht="20"/>
-    <row r="14" spans="1:12" s="2" customFormat="1" ht="20"/>
-    <row r="15" spans="1:12" s="2" customFormat="1" ht="20"/>
-    <row r="16" spans="1:12" s="2" customFormat="1" ht="20"/>
+        <v>51</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="2" customFormat="1" ht="20"/>
+    <row r="12" spans="1:14" s="2" customFormat="1" ht="20"/>
+    <row r="13" spans="1:14" s="2" customFormat="1" ht="20"/>
+    <row r="14" spans="1:14" s="2" customFormat="1" ht="20"/>
+    <row r="15" spans="1:14" s="2" customFormat="1" ht="20"/>
+    <row r="16" spans="1:14" s="2" customFormat="1" ht="20"/>
     <row r="17" s="2" customFormat="1" ht="20"/>
     <row r="18" s="2" customFormat="1" ht="20"/>
     <row r="19" s="2" customFormat="1" ht="20"/>
@@ -1175,9 +1227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6151FE-14AD-B542-8B8E-4D029AE86B1B}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -1190,58 +1240,73 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
         <v>48</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B5" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9851E442-4F75-6F48-9C26-904981C6B651}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>